--- a/public/assets/dashboards/HOME_Generation·Sales_Number of customers_By city and province.xlsx
+++ b/public/assets/dashboards/HOME_Generation·Sales_Number of customers_By city and province.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19080" windowHeight="11370" tabRatio="200"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>연도</t>
   </si>
@@ -268,90 +268,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="26">
-    <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    <numFmt numFmtId="5" formatCode="&quot;\&quot;#,##0;\-&quot;\&quot;#,##0"/>
-    <numFmt numFmtId="6" formatCode="&quot;\&quot;#,##0;[Red]\-&quot;\&quot;#,##0"/>
-    <numFmt numFmtId="7" formatCode="&quot;\&quot;#,##0.00;\-&quot;\&quot;#,##0.00"/>
-    <numFmt numFmtId="8" formatCode="&quot;\&quot;#,##0.00;[Red]\-&quot;\&quot;#,##0.00"/>
-    <numFmt numFmtId="9" formatCode="0%"/>
-    <numFmt numFmtId="10" formatCode="0.00%"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;\&quot;* #,##0_-;\-&quot;\&quot;* #,##0_-;_-&quot;\&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;\&quot;* #,##0.00_-;\-&quot;\&quot;* #,##0.00_-;_-&quot;\&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-    <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="178" formatCode="yy\/mm\/dd"/>
-    <numFmt numFmtId="179" formatCode="yy-mm-dd"/>
-    <numFmt numFmtId="180" formatCode="yyyy\/mm\/dd hh:mm"/>
-    <numFmt numFmtId="181" formatCode="yyyy-mm-dd hh:mm"/>
-    <numFmt numFmtId="182" formatCode="yy\/mm\/dd hh:mm"/>
-    <numFmt numFmtId="183" formatCode="yy-mm-dd hh:mm"/>
-    <numFmt numFmtId="184" formatCode="yyyy\/mm\/dd hh:mm:ss"/>
-    <numFmt numFmtId="185" formatCode="yyyy-mm-dd hh:mm:ss"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="13"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <color rgb="000000"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF31393f"/>
       <name val="맑은 고딕"/>
-      <b/>
-      <color rgb="333333"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <color rgb="31393F"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -363,7 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="DDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,211 +311,76 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="999999"/>
+        <color rgb="FF999999"/>
       </left>
       <right style="thin">
-        <color rgb="999999"/>
+        <color rgb="FF999999"/>
       </right>
       <top style="medium">
-        <color rgb="999999"/>
+        <color rgb="FF999999"/>
       </top>
       <bottom style="thin">
-        <color rgb="999999"/>
+        <color rgb="FF999999"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="EAEAEA"/>
+        <color rgb="FFeaeaea"/>
       </left>
       <right style="thin">
-        <color rgb="EAEAEA"/>
+        <color rgb="FFeaeaea"/>
       </right>
       <top style="thin">
-        <color rgb="DDDDDD"/>
+        <color rgb="FFdddddd"/>
       </top>
       <bottom style="thin">
-        <color rgb="DDDDDD"/>
+        <color rgb="FFdddddd"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" xfId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" xfId="0" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" xfId="0" fillId="2" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" xfId="0" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" xfId="0" fillId="0" borderId="2">
-      <alignment horizontal="right" vertical="top"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="FFFFFF"/>
-      <rgbColor rgb="FF0000"/>
-      <rgbColor rgb="00FF00"/>
-      <rgbColor rgb="0000FF"/>
-      <rgbColor rgb="FFFF00"/>
-      <rgbColor rgb="FF00FF"/>
-      <rgbColor rgb="00FFFF"/>
-      <rgbColor rgb="DDDDDD"/>
-      <rgbColor rgb="999999"/>
-      <rgbColor rgb="31393F"/>
-      <rgbColor rgb="EAEAEA"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="800000"/>
-      <rgbColor rgb="008000"/>
-      <rgbColor rgb="000080"/>
-      <rgbColor rgb="808000"/>
-      <rgbColor rgb="800080"/>
-      <rgbColor rgb="008080"/>
-      <rgbColor rgb="C0C0C0"/>
-      <rgbColor rgb="808080"/>
-      <rgbColor rgb="9999FF"/>
-      <rgbColor rgb="993366"/>
-      <rgbColor rgb="FFFFCC"/>
-      <rgbColor rgb="CCFFFF"/>
-      <rgbColor rgb="660066"/>
-      <rgbColor rgb="FF8080"/>
-      <rgbColor rgb="0066CC"/>
-      <rgbColor rgb="CCCCFF"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="00CCFF"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="CCFFCC"/>
-      <rgbColor rgb="FFFF99"/>
-      <rgbColor rgb="99CCFF"/>
-      <rgbColor rgb="FF99CC"/>
-      <rgbColor rgb="CC99FF"/>
-      <rgbColor rgb="FFCC99"/>
-      <rgbColor rgb="3366FF"/>
-      <rgbColor rgb="33CCCC"/>
-      <rgbColor rgb="99CC00"/>
-      <rgbColor rgb="FFCC00"/>
-      <rgbColor rgb="FF9900"/>
-      <rgbColor rgb="FF6600"/>
-      <rgbColor rgb="666699"/>
-      <rgbColor rgb="969696"/>
-      <rgbColor rgb="003366"/>
-      <rgbColor rgb="339966"/>
-      <rgbColor rgb="003300"/>
-      <rgbColor rgb="333300"/>
-      <rgbColor rgb="993300"/>
-      <rgbColor rgb="000000"/>
-      <rgbColor rgb="333399"/>
-      <rgbColor rgb="333333"/>
-    </indexedColors>
-  </colors>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -586,10 +389,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -627,71 +430,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋?"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋?"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,50 +518,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -768,7 +574,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -777,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -786,7 +592,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -794,10 +600,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -826,7 +632,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -839,13 +645,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -857,4045 +662,4011 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showOutlineSymbols="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.666666666666667"/>
-    <col min="2" max="2" width="9"/>
-    <col min="3" max="3" width="9"/>
-    <col min="4" max="4" width="9"/>
-    <col min="5" max="5" width="9"/>
-    <col min="6" max="6" width="9"/>
-    <col min="7" max="7" width="9"/>
-    <col min="8" max="8" width="9"/>
-    <col min="9" max="9" width="9"/>
-    <col min="10" max="10" width="9"/>
-    <col min="11" max="11" width="9"/>
-    <col min="12" max="12" width="9"/>
-    <col min="13" max="13" width="9"/>
-    <col min="14" max="14" width="9"/>
-    <col min="15" max="15" width="9"/>
-    <col min="16" max="16" width="9"/>
-    <col min="17" max="17" width="9"/>
-    <col min="18" max="18" width="9"/>
-    <col min="19" max="19" width="9"/>
-    <col min="20" max="20" width="9"/>
+    <col min="1" max="1" style="6" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="9.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="5">
         <v>3775479</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="5">
         <v>1294733</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="5">
         <v>969014</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="5">
         <v>1054864</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="5">
         <v>566655</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="5">
         <v>601677</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="5">
         <v>476777</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="5">
         <v>4805643</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="5">
         <v>1179498</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="5">
         <v>1167602</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="5">
         <v>1533577</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="5">
         <v>1322957</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="5">
         <v>1581050</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="5">
         <v>2162309</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="5">
         <v>1996029</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="5">
         <v>534010</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="5">
         <v>107000</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5">
         <v>25128874</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="5">
         <v>3750590</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="5">
         <v>1293428</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="5">
         <v>929132</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="5">
         <v>1046654</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="5">
         <v>564128</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="5">
         <v>598108</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="5">
         <v>473960</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="5">
         <v>4760852</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="5">
         <v>1161285</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="5">
         <v>1152014</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="5">
         <v>1511149</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="5">
         <v>1300586</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="5">
         <v>1557714</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="5">
         <v>2162676</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="5">
         <v>1979070</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="5">
         <v>519422</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="5">
         <v>105607</v>
       </c>
-      <c r="S3" s="33">
-        <v>0</v>
-      </c>
-      <c r="T3" s="33">
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
         <v>24866375</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="5">
         <v>3713891</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="5">
         <v>1290387</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="5">
         <v>928295</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="5">
         <v>1042093</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="5">
         <v>558106</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="5">
         <v>594286</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="5">
         <v>471793</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="5">
         <v>4687268</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="5">
         <v>1137935</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="5">
         <v>1129889</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="5">
         <v>1482070</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="5">
         <v>1272614</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="5">
         <v>1527926</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="5">
         <v>2122187</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="5">
         <v>1958431</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="5">
         <v>502738</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="5">
         <v>103381</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="5">
         <v>14</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="5">
         <v>24523304</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="5">
         <v>3692337</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="5">
         <v>1287766</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="5">
         <v>933257</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="5">
         <v>1032731</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="5">
         <v>553028</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="5">
         <v>591180</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="5">
         <v>470696</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="5">
         <v>4615521</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="5">
         <v>1112938</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="5">
         <v>1108181</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="5">
         <v>1451902</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="5">
         <v>1243394</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="5">
         <v>1497359</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="5">
         <v>2086877</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="5">
         <v>1935540</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="5">
         <v>484825</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="5">
         <v>100758</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="5">
         <v>14</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="5">
         <v>24198304</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="5">
         <v>3647702</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="5">
         <v>1286717</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="5">
         <v>932965</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="5">
         <v>1026667</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="5">
         <v>550818</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="5">
         <v>588843</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="5">
         <v>468077</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="5">
         <v>4563003</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="5">
         <v>1089261</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="5">
         <v>1089307</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="5">
         <v>1423311</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="5">
         <v>1217739</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="5">
         <v>1454637</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="5">
         <v>2047790</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="5">
         <v>1912803</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="5">
         <v>461797</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="5">
         <v>98581</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="5">
         <v>14</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="5">
         <v>23860032</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="5">
         <v>3605300</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="5">
         <v>1282195</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="5">
         <v>941398</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="5">
         <v>1020655</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="5">
         <v>545480</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="5">
         <v>584853</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="5">
         <v>465067</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="5">
         <v>4482784</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="5">
         <v>1062000</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="5">
         <v>1065629</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="5">
         <v>1390063</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="5">
         <v>1193339</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="5">
         <v>1423206</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="5">
         <v>2015725</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="5">
         <v>1889174</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="5">
         <v>442334</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="5">
         <v>92326</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="5">
         <v>14</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="5">
         <v>23501542</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="5">
         <v>3563803</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="5">
         <v>1279193</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="5">
         <v>929637</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="5">
         <v>1005645</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="5">
         <v>543151</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="5">
         <v>576795</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="5">
         <v>459420</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="5">
         <v>4369707</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="5">
         <v>1026188</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="5">
         <v>1041178</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="5">
         <v>1357245</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="5">
         <v>1178675</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="5">
         <v>1393273</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="5">
         <v>1980254</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="5">
         <v>1865308</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="5">
         <v>418037</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="5">
         <v>89514</v>
       </c>
-      <c r="S8" s="33">
-        <v>0</v>
-      </c>
-      <c r="T8" s="33">
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>23077023</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="5">
         <v>3506464</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="5">
         <v>1270512</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="5">
         <v>918572</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="5">
         <v>978238</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="5">
         <v>531637</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="5">
         <v>556529</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="5">
         <v>450632</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="5">
         <v>4248808</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="5">
         <v>1000910</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="5">
         <v>1016059</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="5">
         <v>1317480</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="5">
         <v>1155045</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="5">
         <v>1364679</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="5">
         <v>1937384</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="5">
         <v>1828814</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="5">
         <v>385200</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="5">
         <v>85756</v>
       </c>
-      <c r="S9" s="33">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
         <v>22552719</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="5">
         <v>3467528</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="5">
         <v>1263051</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="5">
         <v>891935</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="5">
         <v>955702</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="5">
         <v>526471</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="5">
         <v>538213</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="5">
         <v>440557</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="5">
         <v>4117575</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="5">
         <v>975262</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="5">
         <v>991176</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="5">
         <v>1281942</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="5">
         <v>1133398</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="5">
         <v>1335482</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="5">
         <v>1884765</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="5">
         <v>1785232</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="5">
         <v>358644</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="5">
         <v>83028</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="5">
         <v>254</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="5">
         <v>22030215</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="5">
         <v>3441223</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="5">
         <v>1252737</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="5">
         <v>870345</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="5">
         <v>936198</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="5">
         <v>516639</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="5">
         <v>522331</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="5">
         <v>427835</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="5">
         <v>3998459</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="5">
         <v>950946</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="5">
         <v>964440</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="5">
         <v>1243023</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="5">
         <v>1109077</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="5">
         <v>1308664</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="5">
         <v>1826845</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="5">
         <v>1744017</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="5">
         <v>339072</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="5">
         <v>80165</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="5">
         <v>253</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="5">
         <v>21532269</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="5">
         <v>3396721</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="5">
         <v>1238164</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="5">
         <v>851861</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="5">
         <v>916535</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="5">
         <v>504496</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="5">
         <v>513418</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="5">
         <v>414659</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="5">
         <v>3889183</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="5">
         <v>930463</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="5">
         <v>940692</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="5">
         <v>1208741</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="5">
         <v>1046867</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="5">
         <v>1284336</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="5">
         <v>1777464</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="5">
         <v>1705087</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="5">
         <v>324574</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="5">
         <v>74187</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="5">
         <v>245</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="5">
         <v>21017693</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="5">
         <v>3297656</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="5">
         <v>1217929</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="5">
         <v>839322</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="5">
         <v>905425</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="5">
         <v>484454</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="5">
         <v>504791</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="5">
         <v>401743</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="5">
         <v>3784921</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="5">
         <v>908906</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="5">
         <v>916759</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="5">
         <v>1171169</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="5">
         <v>1022299</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="5">
         <v>1251282</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="5">
         <v>1729293</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="5">
         <v>1660652</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="5">
         <v>311032</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="5">
         <v>68018</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="5">
         <v>248</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="5">
         <v>20475899</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="5">
         <v>3213280</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="5">
         <v>1192817</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="5">
         <v>820940</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="5">
         <v>884924</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="5">
         <v>471124</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="5">
         <v>483447</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="5">
         <v>385869</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="5">
         <v>3666846</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="5">
         <v>886990</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="5">
         <v>890383</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="5">
         <v>1184303</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="5">
         <v>973340</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="5">
         <v>1201817</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="5">
         <v>1662139</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="5">
         <v>1599848</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="5">
         <v>296567</v>
       </c>
-      <c r="R14" s="33">
-        <v>0</v>
-      </c>
-      <c r="S14" s="33">
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
         <v>232</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="5">
         <v>19814866</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="5">
         <v>3127242</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="5">
         <v>1168269</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="5">
         <v>800585</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="5">
         <v>862705</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="5">
         <v>462672</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="5">
         <v>465250</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="5">
         <v>372924</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="5">
         <v>3547389</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="5">
         <v>868928</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="5">
         <v>865909</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="5">
         <v>1141204</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="5">
         <v>943598</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="5">
         <v>1160472</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="5">
         <v>1607210</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="5">
         <v>1551878</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="5">
         <v>282977</v>
       </c>
-      <c r="R15" s="33">
-        <v>0</v>
-      </c>
-      <c r="S15" s="33">
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
         <v>238</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="5">
         <v>19229450</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="5">
         <v>3061319</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="5">
         <v>1152245</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="5">
         <v>791320</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="5">
         <v>834374</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="5">
         <v>451057</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="5">
         <v>443519</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="5">
         <v>360482</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="5">
         <v>3448837</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="5">
         <v>850629</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="5">
         <v>838126</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="5">
         <v>1103222</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="5">
         <v>903752</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="5">
         <v>1135861</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="5">
         <v>1566729</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="5">
         <v>1508845</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="5">
         <v>276850</v>
       </c>
-      <c r="R16" s="33">
-        <v>0</v>
-      </c>
-      <c r="S16" s="33">
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
         <v>244</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="5">
         <v>18727411</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="5">
         <v>3036105</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="5">
         <v>1147170</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="5">
         <v>785574</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="5">
         <v>823213</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="5">
         <v>443834</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="5">
         <v>432523</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="5">
         <v>353728</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="5">
         <v>3364828</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="5">
         <v>832089</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="5">
         <v>820888</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="5">
         <v>1076938</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="5">
         <v>926633</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="5">
         <v>1106823</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="5">
         <v>1524494</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="5">
         <v>1472953</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="5">
         <v>271002</v>
       </c>
-      <c r="R17" s="33">
-        <v>0</v>
-      </c>
-      <c r="S17" s="33">
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
         <v>253</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="5">
         <v>18419048</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="5">
         <v>3032471</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="5">
         <v>1146331</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="5">
         <v>775419</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="5">
         <v>810596</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="5">
         <v>436176</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="5">
         <v>426486</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="5">
         <v>344838</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="5">
         <v>3266588</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="5">
         <v>808944</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="5">
         <v>795998</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="5">
         <v>1044357</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="5">
         <v>905310</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="5">
         <v>1077482</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="5">
         <v>1471397</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="5">
         <v>1430566</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="5">
         <v>265851</v>
       </c>
-      <c r="R18" s="33">
-        <v>0</v>
-      </c>
-      <c r="S18" s="33">
-        <v>0</v>
-      </c>
-      <c r="T18" s="33">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <v>18038810</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="5">
         <v>3004520</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="5">
         <v>1144447</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="5">
         <v>765031</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="5">
         <v>799902</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="5">
         <v>430007</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="5">
         <v>422353</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="5">
         <v>335854</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="5">
         <v>3159117</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="5">
         <v>786952</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="5">
         <v>774536</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="5">
         <v>1005607</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="5">
         <v>886495</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="5">
         <v>1036400</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="5">
         <v>1416085</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="5">
         <v>1396399</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="5">
         <v>261131</v>
       </c>
-      <c r="R19" s="33">
-        <v>0</v>
-      </c>
-      <c r="S19" s="33">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33">
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>17624836</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="5">
         <v>2991797</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="5">
         <v>1142226</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="5">
         <v>762324</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="5">
         <v>795639</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="5">
         <v>423395</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="5">
         <v>417087</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="5">
         <v>330779</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="5">
         <v>3092956</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="5">
         <v>762530</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="5">
         <v>754380</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="5">
         <v>974323</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="5">
         <v>865105</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="5">
         <v>1020908</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="5">
         <v>1375853</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="5">
         <v>1365303</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="5">
         <v>254889</v>
       </c>
-      <c r="R20" s="33">
-        <v>0</v>
-      </c>
-      <c r="S20" s="33">
-        <v>0</v>
-      </c>
-      <c r="T20" s="33">
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
         <v>17329494</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="5">
         <v>2977662</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="5">
         <v>1134704</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="5">
         <v>766034</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="5">
         <v>793050</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="5">
         <v>417432</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="5">
         <v>410397</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="5">
         <v>324666</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="5">
         <v>3037348</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="5">
         <v>741187</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="5">
         <v>735903</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="5">
         <v>942950</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="5">
         <v>851423</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="5">
         <v>998130</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="5">
         <v>1345213</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="5">
         <v>1336161</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="5">
         <v>249331</v>
       </c>
-      <c r="R21" s="33">
-        <v>0</v>
-      </c>
-      <c r="S21" s="33">
-        <v>0</v>
-      </c>
-      <c r="T21" s="33">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
         <v>17061591</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="5">
         <v>2956773</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="5">
         <v>1125135</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="5">
         <v>757085</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="5">
         <v>791760</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="5">
         <v>414184</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="5">
         <v>402889</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="5">
         <v>318989</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="5">
         <v>2959312</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="5">
         <v>722536</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="5">
         <v>720825</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="5">
         <v>918493</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="5">
         <v>841139</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="5">
         <v>986405</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="5">
         <v>1313240</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="5">
         <v>1306492</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="5">
         <v>240269</v>
       </c>
-      <c r="R22" s="33">
-        <v>0</v>
-      </c>
-      <c r="S22" s="33">
-        <v>0</v>
-      </c>
-      <c r="T22" s="33">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
         <v>16775526</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="5">
         <v>2899136</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="5">
         <v>1104808</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="5">
         <v>734517</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="5">
         <v>782931</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="5">
         <v>402934</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="5">
         <v>387741</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="5">
         <v>309300</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="5">
         <v>2869292</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="5">
         <v>707824</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="5">
         <v>710595</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="5">
         <v>915748</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="5">
         <v>850377</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="5">
         <v>1004440</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="5">
         <v>1296355</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="5">
         <v>1285153</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="5">
         <v>228875</v>
       </c>
-      <c r="R23" s="33">
-        <v>0</v>
-      </c>
-      <c r="S23" s="33">
-        <v>0</v>
-      </c>
-      <c r="T23" s="33">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
         <v>16490026</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="5">
         <v>2786735</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="5">
         <v>1073085</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="5">
         <v>698785</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="5">
         <v>724411</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="5">
         <v>385354</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="5">
         <v>357073</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="5">
         <v>294629</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="5">
         <v>2669017</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="5">
         <v>679612</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="5">
         <v>672851</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="5">
         <v>864016</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="5">
         <v>765857</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="5">
         <v>961552</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="5">
         <v>1234125</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="5">
         <v>1234759</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="5">
         <v>216884</v>
       </c>
-      <c r="R24" s="33">
-        <v>0</v>
-      </c>
-      <c r="S24" s="33">
-        <v>0</v>
-      </c>
-      <c r="T24" s="33">
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <v>15618745</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="5">
         <v>2723669</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="5">
         <v>1049126</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="5">
         <v>664243</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="5">
         <v>685359</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="5">
         <v>374421</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="5">
         <v>334325</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="5">
         <v>281441</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="5">
         <v>2496014</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="5">
         <v>648109</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="5">
         <v>632774</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="5">
         <v>818080</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="5">
         <v>766004</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="5">
         <v>927447</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="5">
         <v>1179324</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="5">
         <v>1188615</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="5">
         <v>206842</v>
       </c>
-      <c r="R25" s="33">
-        <v>0</v>
-      </c>
-      <c r="S25" s="33">
-        <v>0</v>
-      </c>
-      <c r="T25" s="33">
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
         <v>14975793</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="5">
         <v>2698014</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="5">
         <v>1033138</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="5">
         <v>614417</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="5">
         <v>659611</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="5">
         <v>371943</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="5">
         <v>322702</v>
       </c>
-      <c r="H26" s="33">
-        <v>0</v>
-      </c>
-      <c r="I26" s="33">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
         <v>2386211</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="5">
         <v>615947</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="5">
         <v>588106</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="5">
         <v>778604</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="5">
         <v>689342</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="5">
         <v>884312</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="5">
         <v>1092578</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="5">
         <v>1419395</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="5">
         <v>198049</v>
       </c>
-      <c r="R26" s="33">
-        <v>0</v>
-      </c>
-      <c r="S26" s="33">
-        <v>0</v>
-      </c>
-      <c r="T26" s="33">
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
         <v>14352369</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="5">
         <v>2677494</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="5">
         <v>1020617</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="5">
         <v>631034</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="5">
         <v>650902</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="5">
         <v>367181</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="5">
         <v>316585</v>
       </c>
-      <c r="H27" s="33">
-        <v>0</v>
-      </c>
-      <c r="I27" s="33">
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
         <v>2319637</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="5">
         <v>600194</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="5">
         <v>572056</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="5">
         <v>757591</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="5">
         <v>675238</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="5">
         <v>867812</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="5">
         <v>1067153</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="5">
         <v>1388080</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="5">
         <v>190589</v>
       </c>
-      <c r="R27" s="33">
-        <v>0</v>
-      </c>
-      <c r="S27" s="33">
-        <v>0</v>
-      </c>
-      <c r="T27" s="33">
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
         <v>14102163</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="5">
         <v>2644613</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="5">
         <v>1009857</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="5">
         <v>619317</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="5">
         <v>644983</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="5">
         <v>370228</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="5">
         <v>315592</v>
       </c>
-      <c r="H28" s="33">
-        <v>0</v>
-      </c>
-      <c r="I28" s="33">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>2259588</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="5">
         <v>585745</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="5">
         <v>599950</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="5">
         <v>740094</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="5">
         <v>670079</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="5">
         <v>858186</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="5">
         <v>1046942</v>
       </c>
-      <c r="P28" s="33">
+      <c r="P28" s="5">
         <v>1363077</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="5">
         <v>185100</v>
       </c>
-      <c r="R28" s="33">
-        <v>0</v>
-      </c>
-      <c r="S28" s="33">
-        <v>0</v>
-      </c>
-      <c r="T28" s="33">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
         <v>13913351</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="5">
         <v>2562005</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="5">
         <v>988174</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="5">
         <v>600402</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="5">
         <v>624680</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="5">
         <v>344918</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="5">
         <v>285437</v>
       </c>
-      <c r="H29" s="33">
-        <v>0</v>
-      </c>
-      <c r="I29" s="33">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
         <v>2145396</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="5">
         <v>563441</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="5">
         <v>534930</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="5">
         <v>705031</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="5">
         <v>642202</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="5">
         <v>829920</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="5">
         <v>1010690</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="5">
         <v>1315572</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="5">
         <v>176704</v>
       </c>
-      <c r="R29" s="33">
-        <v>0</v>
-      </c>
-      <c r="S29" s="33">
-        <v>0</v>
-      </c>
-      <c r="T29" s="33">
+      <c r="R29" s="5">
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
         <v>13329502</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="5">
         <v>2475203</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="5">
         <v>931215</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="5">
         <v>554631</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="5">
         <v>536249</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="5">
         <v>231741</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="5">
         <v>272923</v>
       </c>
-      <c r="H30" s="33">
-        <v>0</v>
-      </c>
-      <c r="I30" s="33">
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>2076917</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="5">
         <v>543613</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="5">
         <v>522129</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="5">
         <v>685374</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="5">
         <v>641639</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="5">
         <v>818002</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="5">
         <v>1028506</v>
       </c>
-      <c r="P30" s="33">
+      <c r="P30" s="5">
         <v>1285696</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="5">
         <v>167500</v>
       </c>
-      <c r="R30" s="33">
-        <v>0</v>
-      </c>
-      <c r="S30" s="33">
-        <v>0</v>
-      </c>
-      <c r="T30" s="33">
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
         <v>12771338</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="5">
         <v>2384055</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="5">
         <v>925589</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="5">
         <v>499091</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="5">
         <v>524633</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="5">
         <v>313360</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="5">
         <v>260105</v>
       </c>
-      <c r="H31" s="33">
-        <v>0</v>
-      </c>
-      <c r="I31" s="33">
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
         <v>1914773</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="5">
         <v>516574</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="5">
         <v>473360</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="5">
         <v>634181</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="5">
         <v>600284</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="5">
         <v>765911</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="5">
         <v>972791</v>
       </c>
-      <c r="P31" s="33">
+      <c r="P31" s="5">
         <v>1221100</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="5">
         <v>155175</v>
       </c>
-      <c r="R31" s="33">
-        <v>0</v>
-      </c>
-      <c r="S31" s="33">
-        <v>0</v>
-      </c>
-      <c r="T31" s="33">
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
         <v>12160982</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="5">
         <v>2282007</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="5">
         <v>862213</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="5">
         <v>468265</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="5">
         <v>491105</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="5">
         <v>280897</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="5">
         <v>243019</v>
       </c>
-      <c r="H32" s="33">
-        <v>0</v>
-      </c>
-      <c r="I32" s="33">
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
         <v>1781004</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="5">
         <v>491497</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="5">
         <v>444013</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="5">
         <v>602491</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="5">
         <v>577084</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="5">
         <v>734563</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="5">
         <v>932755</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="5">
         <v>1162137</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="5">
         <v>146318</v>
       </c>
-      <c r="R32" s="33">
-        <v>0</v>
-      </c>
-      <c r="S32" s="33">
-        <v>0</v>
-      </c>
-      <c r="T32" s="33">
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
         <v>11499368</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="5">
         <v>2088448</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="5">
         <v>812701</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="5">
         <v>437575</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="5">
         <v>452350</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="5">
         <v>259521</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="5">
         <v>223958</v>
       </c>
-      <c r="H33" s="33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="33">
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
         <v>1656005</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="5">
         <v>472668</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="5">
         <v>413099</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="5">
         <v>572417</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="5">
         <v>550825</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="5">
         <v>695520</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="5">
         <v>887910</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="5">
         <v>1087311</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="5">
         <v>137279</v>
       </c>
-      <c r="R33" s="33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="33">
-        <v>0</v>
-      </c>
-      <c r="T33" s="33">
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
         <v>10747587</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="5">
         <v>1941146</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="5">
         <v>757285</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="5">
         <v>415206</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="5">
         <v>425390</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="5">
         <v>236312</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="5">
         <v>199495</v>
       </c>
-      <c r="H34" s="33">
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
         <v>1538708</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="5">
         <v>458028</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="5">
         <v>383413</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="5">
         <v>551222</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="5">
         <v>526071</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="5">
         <v>662433</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="5">
         <v>838110</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="5">
         <v>994092</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="5">
         <v>125859</v>
       </c>
-      <c r="R34" s="33">
-        <v>0</v>
-      </c>
-      <c r="S34" s="33">
-        <v>0</v>
-      </c>
-      <c r="T34" s="33">
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
         <v>10052770</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="5">
         <v>1770712</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="5">
         <v>713862</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="5">
         <v>390717</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="5">
         <v>381098</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="5">
         <v>216450</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="5">
         <v>176065</v>
       </c>
-      <c r="H35" s="33">
-        <v>0</v>
-      </c>
-      <c r="I35" s="33">
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
         <v>1392777</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="5">
         <v>433639</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="5">
         <v>357162</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="5">
         <v>523487</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="5">
         <v>504258</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="5">
         <v>633153</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="5">
         <v>797699</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="5">
         <v>905669</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="5">
         <v>118463</v>
       </c>
-      <c r="R35" s="33">
-        <v>0</v>
-      </c>
-      <c r="S35" s="33">
-        <v>0</v>
-      </c>
-      <c r="T35" s="33">
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
         <v>9315211</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="5">
         <v>1639388</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="5">
         <v>675719</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="5">
         <v>368842</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="5">
         <v>334265</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="5">
         <v>199854</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="5">
         <v>167369</v>
       </c>
-      <c r="H36" s="33">
-        <v>0</v>
-      </c>
-      <c r="I36" s="33">
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
         <v>1254777</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="5">
         <v>418647</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="5">
         <v>335983</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="5">
         <v>495233</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="5">
         <v>492284</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="5">
         <v>613564</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="5">
         <v>757348</v>
       </c>
-      <c r="P36" s="33">
+      <c r="P36" s="5">
         <v>838844</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="5">
         <v>110403</v>
       </c>
-      <c r="R36" s="33">
-        <v>0</v>
-      </c>
-      <c r="S36" s="33">
-        <v>0</v>
-      </c>
-      <c r="T36" s="33">
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
         <v>8702520</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="5">
         <v>1489835</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="5">
         <v>625406</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="5">
         <v>346296</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="5">
         <v>299938</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="5">
         <v>164246</v>
       </c>
-      <c r="G37" s="33">
-        <v>0</v>
-      </c>
-      <c r="H37" s="33">
-        <v>0</v>
-      </c>
-      <c r="I37" s="33">
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
         <v>1125343</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="5">
         <v>401446</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="5">
         <v>320399</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="5">
         <v>631416</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="5">
         <v>471424</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="5">
         <v>614611</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="5">
         <v>729775</v>
       </c>
-      <c r="P37" s="33">
+      <c r="P37" s="5">
         <v>784635</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="5">
         <v>104857</v>
       </c>
-      <c r="R37" s="33">
-        <v>0</v>
-      </c>
-      <c r="S37" s="33">
-        <v>0</v>
-      </c>
-      <c r="T37" s="33">
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="5">
         <v>8109627</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="5">
         <v>1424052</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="5">
         <v>585585</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="5">
         <v>323463</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="5">
         <v>266851</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="5">
         <v>142912</v>
       </c>
-      <c r="G38" s="33">
-        <v>0</v>
-      </c>
-      <c r="H38" s="33">
-        <v>0</v>
-      </c>
-      <c r="I38" s="33">
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
         <v>1032694</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="5">
         <v>385981</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="5">
         <v>303898</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="5">
         <v>604486</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="5">
         <v>455181</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="5">
         <v>603070</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="5">
         <v>695039</v>
       </c>
-      <c r="P38" s="33">
+      <c r="P38" s="5">
         <v>737338</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="5">
         <v>98809</v>
       </c>
-      <c r="R38" s="33">
-        <v>0</v>
-      </c>
-      <c r="S38" s="33">
-        <v>0</v>
-      </c>
-      <c r="T38" s="33">
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
         <v>7659359</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="5">
         <v>1342557</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="5">
         <v>549211</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="5">
         <v>309141</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="5">
         <v>246681</v>
       </c>
-      <c r="F39" s="33">
-        <v>0</v>
-      </c>
-      <c r="G39" s="33">
-        <v>0</v>
-      </c>
-      <c r="H39" s="33">
-        <v>0</v>
-      </c>
-      <c r="I39" s="33">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
         <v>959669</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="5">
         <v>375248</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="5">
         <v>290107</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="5">
         <v>584862</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="5">
         <v>442523</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="5">
         <v>721072</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="5">
         <v>676106</v>
       </c>
-      <c r="P39" s="33">
+      <c r="P39" s="5">
         <v>706990</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="5">
         <v>94499</v>
       </c>
-      <c r="R39" s="33">
-        <v>0</v>
-      </c>
-      <c r="S39" s="33">
-        <v>0</v>
-      </c>
-      <c r="T39" s="33">
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
         <v>7298666</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="5">
         <v>1259649</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="5">
         <v>520442</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="5">
         <v>290169</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="5">
         <v>226979</v>
       </c>
-      <c r="F40" s="33">
-        <v>0</v>
-      </c>
-      <c r="G40" s="33">
-        <v>0</v>
-      </c>
-      <c r="H40" s="33">
-        <v>0</v>
-      </c>
-      <c r="I40" s="33">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
         <v>863299</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="5">
         <v>361294</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="5">
         <v>277700</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="5">
         <v>568658</v>
       </c>
-      <c r="M40" s="33">
+      <c r="M40" s="5">
         <v>430003</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="5">
         <v>704609</v>
       </c>
-      <c r="O40" s="33">
+      <c r="O40" s="5">
         <v>660128</v>
       </c>
-      <c r="P40" s="33">
+      <c r="P40" s="5">
         <v>676684</v>
       </c>
-      <c r="Q40" s="33">
+      <c r="Q40" s="5">
         <v>91553</v>
       </c>
-      <c r="R40" s="33">
-        <v>0</v>
-      </c>
-      <c r="S40" s="33">
-        <v>0</v>
-      </c>
-      <c r="T40" s="33">
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
         <v>6931167</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="5">
         <v>1213212</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="5">
         <v>492515</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="5">
         <v>269816</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="5">
         <v>206910</v>
       </c>
-      <c r="F41" s="33">
-        <v>0</v>
-      </c>
-      <c r="G41" s="33">
-        <v>0</v>
-      </c>
-      <c r="H41" s="33">
-        <v>0</v>
-      </c>
-      <c r="I41" s="33">
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
         <v>788010</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="5">
         <v>348994</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="5">
         <v>265993</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="5">
         <v>546853</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="5">
         <v>421872</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="5">
         <v>685795</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="5">
         <v>644813</v>
       </c>
-      <c r="P41" s="33">
+      <c r="P41" s="5">
         <v>649259</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="5">
         <v>87262</v>
       </c>
-      <c r="R41" s="33">
-        <v>0</v>
-      </c>
-      <c r="S41" s="33">
-        <v>0</v>
-      </c>
-      <c r="T41" s="33">
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
+      <c r="T41" s="5">
         <v>6621304</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="5">
         <v>1145358</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="5">
         <v>459405</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="5">
         <v>253744</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="5">
         <v>183263</v>
       </c>
-      <c r="F42" s="33">
-        <v>0</v>
-      </c>
-      <c r="G42" s="33">
-        <v>0</v>
-      </c>
-      <c r="H42" s="33">
-        <v>0</v>
-      </c>
-      <c r="I42" s="33">
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
         <v>738380</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="5">
         <v>335166</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="5">
         <v>267292</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="5">
         <v>538115</v>
       </c>
-      <c r="M42" s="33">
+      <c r="M42" s="5">
         <v>413956</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="5">
         <v>671407</v>
       </c>
-      <c r="O42" s="33">
+      <c r="O42" s="5">
         <v>634404</v>
       </c>
-      <c r="P42" s="33">
+      <c r="P42" s="5">
         <v>619256</v>
       </c>
-      <c r="Q42" s="33">
+      <c r="Q42" s="5">
         <v>81884</v>
       </c>
-      <c r="R42" s="33">
-        <v>0</v>
-      </c>
-      <c r="S42" s="33">
-        <v>0</v>
-      </c>
-      <c r="T42" s="33">
+      <c r="R42" s="5">
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
         <v>6341630</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="5">
         <v>1068990</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="5">
         <v>425802</v>
       </c>
-      <c r="D43" s="33">
-        <v>0</v>
-      </c>
-      <c r="E43" s="33">
-        <v>0</v>
-      </c>
-      <c r="F43" s="33">
-        <v>0</v>
-      </c>
-      <c r="G43" s="33">
-        <v>0</v>
-      </c>
-      <c r="H43" s="33">
-        <v>0</v>
-      </c>
-      <c r="I43" s="33">
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
         <v>831866</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="5">
         <v>320671</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="5">
         <v>258265</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="5">
         <v>520503</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="5">
         <v>397197</v>
       </c>
-      <c r="N43" s="33">
+      <c r="N43" s="5">
         <v>642489</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="5">
         <v>854507</v>
       </c>
-      <c r="P43" s="33">
+      <c r="P43" s="5">
         <v>586835</v>
       </c>
-      <c r="Q43" s="33">
+      <c r="Q43" s="5">
         <v>78021</v>
       </c>
-      <c r="R43" s="33">
-        <v>0</v>
-      </c>
-      <c r="S43" s="33">
-        <v>0</v>
-      </c>
-      <c r="T43" s="33">
+      <c r="R43" s="5">
+        <v>0</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0</v>
+      </c>
+      <c r="T43" s="5">
         <v>5985146</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="5">
         <v>990879</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="5">
         <v>396744</v>
       </c>
-      <c r="D44" s="33">
-        <v>0</v>
-      </c>
-      <c r="E44" s="33">
-        <v>0</v>
-      </c>
-      <c r="F44" s="33">
-        <v>0</v>
-      </c>
-      <c r="G44" s="33">
-        <v>0</v>
-      </c>
-      <c r="H44" s="33">
-        <v>0</v>
-      </c>
-      <c r="I44" s="33">
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
         <v>763328</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="5">
         <v>309535</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="5">
         <v>248927</v>
       </c>
-      <c r="L44" s="33">
+      <c r="L44" s="5">
         <v>500068</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="5">
         <v>383292</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="5">
         <v>625017</v>
       </c>
-      <c r="O44" s="33">
+      <c r="O44" s="5">
         <v>825789</v>
       </c>
-      <c r="P44" s="33">
+      <c r="P44" s="5">
         <v>563483</v>
       </c>
-      <c r="Q44" s="33">
+      <c r="Q44" s="5">
         <v>75279</v>
       </c>
-      <c r="R44" s="33">
-        <v>0</v>
-      </c>
-      <c r="S44" s="33">
-        <v>0</v>
-      </c>
-      <c r="T44" s="33">
+      <c r="R44" s="5">
+        <v>0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0</v>
+      </c>
+      <c r="T44" s="5">
         <v>5682341</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="5">
         <v>950410</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="5">
         <v>374936</v>
       </c>
-      <c r="D45" s="33">
-        <v>0</v>
-      </c>
-      <c r="E45" s="33">
-        <v>0</v>
-      </c>
-      <c r="F45" s="33">
-        <v>0</v>
-      </c>
-      <c r="G45" s="33">
-        <v>0</v>
-      </c>
-      <c r="H45" s="33">
-        <v>0</v>
-      </c>
-      <c r="I45" s="33">
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
         <v>716008</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="5">
         <v>300929</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="5">
         <v>242908</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="5">
         <v>490625</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="5">
         <v>370844</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="5">
         <v>619252</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="5">
         <v>796626</v>
       </c>
-      <c r="P45" s="33">
+      <c r="P45" s="5">
         <v>548843</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="5">
         <v>73448</v>
       </c>
-      <c r="R45" s="33">
-        <v>0</v>
-      </c>
-      <c r="S45" s="33">
-        <v>0</v>
-      </c>
-      <c r="T45" s="33">
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
         <v>5484829</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="5">
         <v>899292</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="5">
         <v>349487</v>
       </c>
-      <c r="D46" s="33">
-        <v>0</v>
-      </c>
-      <c r="E46" s="33">
-        <v>0</v>
-      </c>
-      <c r="F46" s="33">
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <v>0</v>
-      </c>
-      <c r="H46" s="33">
-        <v>0</v>
-      </c>
-      <c r="I46" s="33">
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
         <v>678987</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="5">
         <v>277089</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="5">
         <v>237387</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="5">
         <v>477612</v>
       </c>
-      <c r="M46" s="33">
+      <c r="M46" s="5">
         <v>364538</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="5">
         <v>594207</v>
       </c>
-      <c r="O46" s="33">
+      <c r="O46" s="5">
         <v>768132</v>
       </c>
-      <c r="P46" s="33">
+      <c r="P46" s="5">
         <v>526392</v>
       </c>
-      <c r="Q46" s="33">
+      <c r="Q46" s="5">
         <v>70675</v>
       </c>
-      <c r="R46" s="33">
-        <v>0</v>
-      </c>
-      <c r="S46" s="33">
-        <v>0</v>
-      </c>
-      <c r="T46" s="33">
+      <c r="R46" s="5">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
         <v>5243798</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="5">
         <v>850013</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="5">
         <v>312773</v>
       </c>
-      <c r="D47" s="33">
-        <v>0</v>
-      </c>
-      <c r="E47" s="33">
-        <v>0</v>
-      </c>
-      <c r="F47" s="33">
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33">
-        <v>0</v>
-      </c>
-      <c r="I47" s="33">
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
         <v>607245</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="5">
         <v>263315</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="5">
         <v>230110</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="5">
         <v>454099</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="5">
         <v>354237</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="5">
         <v>555519</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="5">
         <v>726832</v>
       </c>
-      <c r="P47" s="33">
+      <c r="P47" s="5">
         <v>513447</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="Q47" s="5">
         <v>67565</v>
       </c>
-      <c r="R47" s="33">
-        <v>0</v>
-      </c>
-      <c r="S47" s="33">
-        <v>0</v>
-      </c>
-      <c r="T47" s="33">
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
         <v>4935155</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="5">
         <v>795696</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="5">
         <v>291613</v>
       </c>
-      <c r="D48" s="33">
-        <v>0</v>
-      </c>
-      <c r="E48" s="33">
-        <v>0</v>
-      </c>
-      <c r="F48" s="33">
-        <v>0</v>
-      </c>
-      <c r="G48" s="33">
-        <v>0</v>
-      </c>
-      <c r="H48" s="33">
-        <v>0</v>
-      </c>
-      <c r="I48" s="33">
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
         <v>53194</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="5">
         <v>236356</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="5">
         <v>218492</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="5">
         <v>428571</v>
       </c>
-      <c r="M48" s="33">
+      <c r="M48" s="5">
         <v>337930</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="5">
         <v>529344</v>
       </c>
-      <c r="O48" s="33">
+      <c r="O48" s="5">
         <v>691085</v>
       </c>
-      <c r="P48" s="33">
+      <c r="P48" s="5">
         <v>491496</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="5">
         <v>65502</v>
       </c>
-      <c r="R48" s="33">
-        <v>0</v>
-      </c>
-      <c r="S48" s="33">
-        <v>0</v>
-      </c>
-      <c r="T48" s="33">
+      <c r="R48" s="5">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
         <v>4139279</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="5">
         <v>759426</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="5">
         <v>274052</v>
       </c>
-      <c r="D49" s="33">
-        <v>0</v>
-      </c>
-      <c r="E49" s="33">
-        <v>0</v>
-      </c>
-      <c r="F49" s="33">
-        <v>0</v>
-      </c>
-      <c r="G49" s="33">
-        <v>0</v>
-      </c>
-      <c r="H49" s="33">
-        <v>0</v>
-      </c>
-      <c r="I49" s="33">
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
         <v>530518</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="5">
         <v>208968</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="5">
         <v>195295</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="5">
         <v>366390</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="5">
         <v>295800</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="5">
         <v>462488</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="5">
         <v>630658</v>
       </c>
-      <c r="P49" s="33">
+      <c r="P49" s="5">
         <v>449872</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="5">
         <v>63827</v>
       </c>
-      <c r="R49" s="33">
-        <v>0</v>
-      </c>
-      <c r="S49" s="33">
-        <v>0</v>
-      </c>
-      <c r="T49" s="33">
+      <c r="R49" s="5">
+        <v>0</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0</v>
+      </c>
+      <c r="T49" s="5">
         <v>4237294</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="5">
         <v>719140</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="5">
         <v>257379</v>
       </c>
-      <c r="D50" s="33">
-        <v>0</v>
-      </c>
-      <c r="E50" s="33">
-        <v>0</v>
-      </c>
-      <c r="F50" s="33">
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <v>0</v>
-      </c>
-      <c r="H50" s="33">
-        <v>0</v>
-      </c>
-      <c r="I50" s="33">
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
         <v>486436</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="5">
         <v>195010</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="5">
         <v>182974</v>
       </c>
-      <c r="L50" s="33">
+      <c r="L50" s="5">
         <v>322863</v>
       </c>
-      <c r="M50" s="33">
+      <c r="M50" s="5">
         <v>278847</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="5">
         <v>425924</v>
       </c>
-      <c r="O50" s="33">
+      <c r="O50" s="5">
         <v>587061</v>
       </c>
-      <c r="P50" s="33">
+      <c r="P50" s="5">
         <v>421476</v>
       </c>
-      <c r="Q50" s="33">
+      <c r="Q50" s="5">
         <v>61710</v>
       </c>
-      <c r="R50" s="33">
-        <v>0</v>
-      </c>
-      <c r="S50" s="33">
-        <v>0</v>
-      </c>
-      <c r="T50" s="33">
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
+        <v>0</v>
+      </c>
+      <c r="T50" s="5">
         <v>3938820</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="5">
         <v>683055</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="5">
         <v>244137</v>
       </c>
-      <c r="D51" s="33">
-        <v>0</v>
-      </c>
-      <c r="E51" s="33">
-        <v>0</v>
-      </c>
-      <c r="F51" s="33">
-        <v>0</v>
-      </c>
-      <c r="G51" s="33">
-        <v>0</v>
-      </c>
-      <c r="H51" s="33">
-        <v>0</v>
-      </c>
-      <c r="I51" s="33">
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
         <v>426842</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J51" s="5">
         <v>170863</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="5">
         <v>150112</v>
       </c>
-      <c r="L51" s="33">
+      <c r="L51" s="5">
         <v>265358</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="5">
         <v>228583</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="5">
         <v>353331</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="5">
         <v>496214</v>
       </c>
-      <c r="P51" s="33">
+      <c r="P51" s="5">
         <v>351827</v>
       </c>
-      <c r="Q51" s="33">
+      <c r="Q51" s="5">
         <v>57371</v>
       </c>
-      <c r="R51" s="33">
-        <v>0</v>
-      </c>
-      <c r="S51" s="33">
-        <v>0</v>
-      </c>
-      <c r="T51" s="33">
+      <c r="R51" s="5">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>0</v>
+      </c>
+      <c r="T51" s="5">
         <v>3427693</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="5">
         <v>637708</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="5">
         <v>229363</v>
       </c>
-      <c r="D52" s="33">
-        <v>0</v>
-      </c>
-      <c r="E52" s="33">
-        <v>0</v>
-      </c>
-      <c r="F52" s="33">
-        <v>0</v>
-      </c>
-      <c r="G52" s="33">
-        <v>0</v>
-      </c>
-      <c r="H52" s="33">
-        <v>0</v>
-      </c>
-      <c r="I52" s="33">
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
         <v>370051</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="5">
         <v>155131</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="5">
         <v>120259</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L52" s="5">
         <v>217075</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M52" s="5">
         <v>193888</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="5">
         <v>303774</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="5">
         <v>422793</v>
       </c>
-      <c r="P52" s="33">
+      <c r="P52" s="5">
         <v>298294</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="Q52" s="5">
         <v>50769</v>
       </c>
-      <c r="R52" s="33">
-        <v>0</v>
-      </c>
-      <c r="S52" s="33">
-        <v>0</v>
-      </c>
-      <c r="T52" s="33">
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0</v>
+      </c>
+      <c r="T52" s="5">
         <v>2999105</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="5">
         <v>616388</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="5">
         <v>223515</v>
       </c>
-      <c r="D53" s="33">
-        <v>0</v>
-      </c>
-      <c r="E53" s="33">
-        <v>0</v>
-      </c>
-      <c r="F53" s="33">
-        <v>0</v>
-      </c>
-      <c r="G53" s="33">
-        <v>0</v>
-      </c>
-      <c r="H53" s="33">
-        <v>0</v>
-      </c>
-      <c r="I53" s="33">
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
         <v>301207</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="5">
         <v>127554</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="5">
         <v>92704</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="5">
         <v>183778</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="5">
         <v>166755</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N53" s="5">
         <v>244180</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="5">
         <v>344243</v>
       </c>
-      <c r="P53" s="33">
+      <c r="P53" s="5">
         <v>253890</v>
       </c>
-      <c r="Q53" s="33">
+      <c r="Q53" s="5">
         <v>42668</v>
       </c>
-      <c r="R53" s="33">
-        <v>0</v>
-      </c>
-      <c r="S53" s="33">
-        <v>0</v>
-      </c>
-      <c r="T53" s="33">
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0</v>
+      </c>
+      <c r="T53" s="5">
         <v>2596882</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="5">
         <v>572834</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="5">
         <v>207374</v>
       </c>
-      <c r="D54" s="33">
-        <v>0</v>
-      </c>
-      <c r="E54" s="33">
-        <v>0</v>
-      </c>
-      <c r="F54" s="33">
-        <v>0</v>
-      </c>
-      <c r="G54" s="33">
-        <v>0</v>
-      </c>
-      <c r="H54" s="33">
-        <v>0</v>
-      </c>
-      <c r="I54" s="33">
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
         <v>287758</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="5">
         <v>111735</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="5">
         <v>82212</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="5">
         <v>166663</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M54" s="5">
         <v>146946</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="5">
         <v>217588</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="5">
         <v>303490</v>
       </c>
-      <c r="P54" s="33">
+      <c r="P54" s="5">
         <v>221912</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="5">
         <v>37106</v>
       </c>
-      <c r="R54" s="33">
-        <v>0</v>
-      </c>
-      <c r="S54" s="33">
-        <v>0</v>
-      </c>
-      <c r="T54" s="33">
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0</v>
+      </c>
+      <c r="T54" s="5">
         <v>2355618</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="5">
         <v>521711</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="5">
         <v>190370</v>
       </c>
-      <c r="D55" s="33">
-        <v>0</v>
-      </c>
-      <c r="E55" s="33">
-        <v>0</v>
-      </c>
-      <c r="F55" s="33">
-        <v>0</v>
-      </c>
-      <c r="G55" s="33">
-        <v>0</v>
-      </c>
-      <c r="H55" s="33">
-        <v>0</v>
-      </c>
-      <c r="I55" s="33">
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
         <v>230740</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="5">
         <v>92962</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="5">
         <v>68846</v>
       </c>
-      <c r="L55" s="33">
+      <c r="L55" s="5">
         <v>137531</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="5">
         <v>127710</v>
       </c>
-      <c r="N55" s="33">
+      <c r="N55" s="5">
         <v>181940</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="5">
         <v>520883</v>
       </c>
-      <c r="P55" s="33">
+      <c r="P55" s="5">
         <v>190987</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="5">
         <v>30457</v>
       </c>
-      <c r="R55" s="33">
-        <v>0</v>
-      </c>
-      <c r="S55" s="33">
-        <v>0</v>
-      </c>
-      <c r="T55" s="33">
+      <c r="R55" s="5">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0</v>
+      </c>
+      <c r="T55" s="5">
         <v>2294137</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="5">
         <v>479632</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="5">
         <v>181740</v>
       </c>
-      <c r="D56" s="33">
-        <v>0</v>
-      </c>
-      <c r="E56" s="33">
-        <v>0</v>
-      </c>
-      <c r="F56" s="33">
-        <v>0</v>
-      </c>
-      <c r="G56" s="33">
-        <v>0</v>
-      </c>
-      <c r="H56" s="33">
-        <v>0</v>
-      </c>
-      <c r="I56" s="33">
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
         <v>190186</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="5">
         <v>83165</v>
       </c>
-      <c r="K56" s="33">
+      <c r="K56" s="5">
         <v>59820</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="5">
         <v>121811</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="5">
         <v>111103</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="5">
         <v>149063</v>
       </c>
-      <c r="O56" s="33">
+      <c r="O56" s="5">
         <v>219264</v>
       </c>
-      <c r="P56" s="33">
+      <c r="P56" s="5">
         <v>165296</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="5">
         <v>23022</v>
       </c>
-      <c r="R56" s="33">
-        <v>0</v>
-      </c>
-      <c r="S56" s="33">
-        <v>0</v>
-      </c>
-      <c r="T56" s="33">
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
         <v>1784102</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="5">
         <v>444581</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="5">
         <v>166669</v>
       </c>
-      <c r="D57" s="33">
-        <v>0</v>
-      </c>
-      <c r="E57" s="33">
-        <v>0</v>
-      </c>
-      <c r="F57" s="33">
-        <v>0</v>
-      </c>
-      <c r="G57" s="33">
-        <v>0</v>
-      </c>
-      <c r="H57" s="33">
-        <v>0</v>
-      </c>
-      <c r="I57" s="33">
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
         <v>174060</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="5">
         <v>71308</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="5">
         <v>55639</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="5">
         <v>111498</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="5">
         <v>104722</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="5">
         <v>134578</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="5">
         <v>201678</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="5">
         <v>151326</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="5">
         <v>20049</v>
       </c>
-      <c r="R57" s="33">
-        <v>0</v>
-      </c>
-      <c r="S57" s="33">
-        <v>0</v>
-      </c>
-      <c r="T57" s="33">
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5">
         <v>1636108</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="5">
         <v>398268</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="5">
         <v>157666</v>
       </c>
-      <c r="D58" s="33">
-        <v>0</v>
-      </c>
-      <c r="E58" s="33">
-        <v>0</v>
-      </c>
-      <c r="F58" s="33">
-        <v>0</v>
-      </c>
-      <c r="G58" s="33">
-        <v>0</v>
-      </c>
-      <c r="H58" s="33">
-        <v>0</v>
-      </c>
-      <c r="I58" s="33">
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
         <v>166978</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="5">
         <v>66793</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="5">
         <v>53182</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="5">
         <v>105149</v>
       </c>
-      <c r="M58" s="33">
+      <c r="M58" s="5">
         <v>100833</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="5">
         <v>126107</v>
       </c>
-      <c r="O58" s="33">
+      <c r="O58" s="5">
         <v>189735</v>
       </c>
-      <c r="P58" s="33">
+      <c r="P58" s="5">
         <v>143522</v>
       </c>
-      <c r="Q58" s="33">
+      <c r="Q58" s="5">
         <v>17048</v>
       </c>
-      <c r="R58" s="33">
-        <v>0</v>
-      </c>
-      <c r="S58" s="33">
-        <v>0</v>
-      </c>
-      <c r="T58" s="33">
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
         <v>1525281</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="5">
         <v>364540</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="5">
         <v>144007</v>
       </c>
-      <c r="D59" s="33">
-        <v>0</v>
-      </c>
-      <c r="E59" s="33">
-        <v>0</v>
-      </c>
-      <c r="F59" s="33">
-        <v>0</v>
-      </c>
-      <c r="G59" s="33">
-        <v>0</v>
-      </c>
-      <c r="H59" s="33">
-        <v>0</v>
-      </c>
-      <c r="I59" s="33">
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
         <v>136204</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="5">
         <v>55339</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="5">
         <v>44825</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="5">
         <v>93694</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="5">
         <v>87326</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="5">
         <v>105837</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="5">
         <v>167080</v>
       </c>
-      <c r="P59" s="33">
+      <c r="P59" s="5">
         <v>120459</v>
       </c>
-      <c r="Q59" s="33">
+      <c r="Q59" s="5">
         <v>11652</v>
       </c>
-      <c r="R59" s="33">
-        <v>0</v>
-      </c>
-      <c r="S59" s="33">
-        <v>0</v>
-      </c>
-      <c r="T59" s="33">
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
         <v>1330963</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="5">
         <v>338462</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="5">
         <v>130956</v>
       </c>
-      <c r="D60" s="33">
-        <v>0</v>
-      </c>
-      <c r="E60" s="33">
-        <v>0</v>
-      </c>
-      <c r="F60" s="33">
-        <v>0</v>
-      </c>
-      <c r="G60" s="33">
-        <v>0</v>
-      </c>
-      <c r="H60" s="33">
-        <v>0</v>
-      </c>
-      <c r="I60" s="33">
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
         <v>118840</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J60" s="5">
         <v>45340</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K60" s="5">
         <v>41136</v>
       </c>
-      <c r="L60" s="33">
+      <c r="L60" s="5">
         <v>84464</v>
       </c>
-      <c r="M60" s="33">
+      <c r="M60" s="5">
         <v>78319</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="5">
         <v>93452</v>
       </c>
-      <c r="O60" s="33">
+      <c r="O60" s="5">
         <v>148785</v>
       </c>
-      <c r="P60" s="33">
+      <c r="P60" s="5">
         <v>109285</v>
       </c>
-      <c r="Q60" s="33">
+      <c r="Q60" s="5">
         <v>9808</v>
       </c>
-      <c r="R60" s="33">
-        <v>0</v>
-      </c>
-      <c r="S60" s="33">
-        <v>0</v>
-      </c>
-      <c r="T60" s="33">
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
         <v>1198847</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="5">
         <v>300359</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="5">
         <v>116832</v>
       </c>
-      <c r="D61" s="33">
-        <v>0</v>
-      </c>
-      <c r="E61" s="33">
-        <v>0</v>
-      </c>
-      <c r="F61" s="33">
-        <v>0</v>
-      </c>
-      <c r="G61" s="33">
-        <v>0</v>
-      </c>
-      <c r="H61" s="33">
-        <v>0</v>
-      </c>
-      <c r="I61" s="33">
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
         <v>98477</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="5">
         <v>38501</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="5">
         <v>35355</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="5">
         <v>74336</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="5">
         <v>71501</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="5">
         <v>85839</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="5">
         <v>135466</v>
       </c>
-      <c r="P61" s="33">
+      <c r="P61" s="5">
         <v>101868</v>
       </c>
-      <c r="Q61" s="33">
+      <c r="Q61" s="5">
         <v>9175</v>
       </c>
-      <c r="R61" s="33">
-        <v>0</v>
-      </c>
-      <c r="S61" s="33">
-        <v>0</v>
-      </c>
-      <c r="T61" s="33">
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0</v>
+      </c>
+      <c r="T61" s="5">
         <v>1067709</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="5">
         <v>258696</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="5">
         <v>105740</v>
       </c>
-      <c r="D62" s="33">
-        <v>0</v>
-      </c>
-      <c r="E62" s="33">
-        <v>0</v>
-      </c>
-      <c r="F62" s="33">
-        <v>0</v>
-      </c>
-      <c r="G62" s="33">
-        <v>0</v>
-      </c>
-      <c r="H62" s="33">
-        <v>0</v>
-      </c>
-      <c r="I62" s="33">
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
         <v>88383</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="5">
         <v>37701</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="5">
         <v>34289</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="5">
         <v>68323</v>
       </c>
-      <c r="M62" s="33">
+      <c r="M62" s="5">
         <v>63390</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="5">
         <v>78579</v>
       </c>
-      <c r="O62" s="33">
+      <c r="O62" s="5">
         <v>125217</v>
       </c>
-      <c r="P62" s="33">
+      <c r="P62" s="5">
         <v>94458</v>
       </c>
-      <c r="Q62" s="33">
+      <c r="Q62" s="5">
         <v>7877</v>
       </c>
-      <c r="R62" s="33">
-        <v>0</v>
-      </c>
-      <c r="S62" s="33">
-        <v>0</v>
-      </c>
-      <c r="T62" s="33">
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0</v>
+      </c>
+      <c r="T62" s="5">
         <v>962653</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="5">
         <v>222822</v>
       </c>
-      <c r="C63" s="33">
-        <v>0</v>
-      </c>
-      <c r="D63" s="33">
-        <v>0</v>
-      </c>
-      <c r="E63" s="33">
-        <v>0</v>
-      </c>
-      <c r="F63" s="33">
-        <v>0</v>
-      </c>
-      <c r="G63" s="33">
-        <v>0</v>
-      </c>
-      <c r="H63" s="33">
-        <v>0</v>
-      </c>
-      <c r="I63" s="33">
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
         <v>85956</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="5">
         <v>32496</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="5">
         <v>32008</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="5">
         <v>63239</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="5">
         <v>59116</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="5">
         <v>73074</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="5">
         <v>113727</v>
       </c>
-      <c r="P63" s="33">
+      <c r="P63" s="5">
         <v>185950</v>
       </c>
-      <c r="Q63" s="33">
+      <c r="Q63" s="5">
         <v>7189</v>
       </c>
-      <c r="R63" s="33">
-        <v>0</v>
-      </c>
-      <c r="S63" s="33">
-        <v>0</v>
-      </c>
-      <c r="T63" s="33">
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
         <v>875577</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="5">
         <v>219134</v>
       </c>
-      <c r="C64" s="33">
-        <v>0</v>
-      </c>
-      <c r="D64" s="33">
-        <v>0</v>
-      </c>
-      <c r="E64" s="33">
-        <v>0</v>
-      </c>
-      <c r="F64" s="33">
-        <v>0</v>
-      </c>
-      <c r="G64" s="33">
-        <v>0</v>
-      </c>
-      <c r="H64" s="33">
-        <v>0</v>
-      </c>
-      <c r="I64" s="33">
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
         <v>65480</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="5">
         <v>24626</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="5">
         <v>30418</v>
       </c>
-      <c r="L64" s="33">
+      <c r="L64" s="5">
         <v>58205</v>
       </c>
-      <c r="M64" s="33">
+      <c r="M64" s="5">
         <v>58015</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="5">
         <v>70043</v>
       </c>
-      <c r="O64" s="33">
+      <c r="O64" s="5">
         <v>103507</v>
       </c>
-      <c r="P64" s="33">
+      <c r="P64" s="5">
         <v>161063</v>
       </c>
-      <c r="Q64" s="33">
+      <c r="Q64" s="5">
         <v>6761</v>
       </c>
-      <c r="R64" s="33">
-        <v>0</v>
-      </c>
-      <c r="S64" s="33">
-        <v>0</v>
-      </c>
-      <c r="T64" s="33">
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0</v>
+      </c>
+      <c r="T64" s="5">
         <v>797252</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>